--- a/bots/crawl_ch/output/electronics_2022-07-20.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,58 +531,80 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>74.50</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.74/1ST</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
@@ -653,50 +675,50 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -706,7 +728,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -716,199 +738,199 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>349.50</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>349.50</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Varta</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
@@ -916,117 +938,97 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>6872591</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Bosch</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>239.50</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6872591</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>239.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1035,51 +1037,49 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1088,34 +1088,34 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6689619</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Philips Dampfstation HI5919/31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>69.50</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1139,34 +1139,34 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Philips Dampfstation HI5919/31 50% Aktion 69.50 Schweizer Franken statt 139.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6689619</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>69.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1190,49 +1190,51 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31 50% Aktion 69.50 Schweizer Franken statt 139.00 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1241,42 +1243,40 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1299,29 +1299,29 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1350,29 +1350,29 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1396,34 +1396,34 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1452,29 +1452,29 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>6634107</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Trend Bluetooth Lautsprecher E100 Grün</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-bluetooth-lautsprecher-e100-gruen/p/6634107</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1498,34 +1498,34 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Trend Bluetooth Lautsprecher E100 Grün 50% Aktion 19.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6634107</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Trend Bluetooth Lautsprecher E100 Grün</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-bluetooth-lautsprecher-e100-gruen/p/6634107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1549,40 +1549,42 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Trend Bluetooth Lautsprecher E100 Grün 50% Aktion 19.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1591,7 +1593,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1605,37 +1607,35 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1658,29 +1658,29 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1709,35 +1709,37 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1746,7 +1748,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1760,87 +1762,105 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1849,17 +1869,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1869,7 +1889,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1879,34 +1899,34 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1950,39 +1970,39 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1996,12 +2016,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2011,7 +2031,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2021,39 +2041,39 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2067,12 +2087,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2082,7 +2102,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2092,39 +2112,39 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2143,7 +2163,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2153,7 +2173,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2163,88 +2183,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>3591272</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>2022-07-20 07:01:48</t>
+          <t>2022-07-20 20:58:43</t>
         </is>
       </c>
     </row>
